--- a/biology/Zoologie/Centrosaurinae/Centrosaurinae.xlsx
+++ b/biology/Zoologie/Centrosaurinae/Centrosaurinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Centrosaurinae (centrosaurinés en français) constituent l'un des deux clades de Ceratopsidae, un groupe éteint de dinosaures cératopsiens comprenant de grands herbivores quadrupèdes pourvus de cornes et de collerettes osseuses au niveau du crâne ; ils ont vécu au Crétacé supérieur en Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Centrosaurine sont connus essentiellement dans la partie septentrionale de la Laramidia, cette île-continent qui s'étendait au Crétacé supérieur sur la marge ouest du continent nord-américain du Mexique à l'Alaska. Ses fossiles ont été découverts principalement en Alberta, au Montana, en  Alaska et plus récemment au Mexique[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Centrosaurine sont connus essentiellement dans la partie septentrionale de la Laramidia, cette île-continent qui s'étendait au Crétacé supérieur sur la marge ouest du continent nord-américain du Mexique à l'Alaska. Ses fossiles ont été découverts principalement en Alberta, au Montana, en  Alaska et plus récemment au Mexique,.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les centrosaurinés regroupent des formes telles que Styracosaurus et Centrosaurus qui se caractérisent par[3],[4],[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les centrosaurinés regroupent des formes telles que Styracosaurus et Centrosaurus qui se caractérisent par :
 une corne nasale ou un dôme osseux particulièrement bien développé ;
 des cornes frontales ;
 une collerette fenestrée à l'arrière du crâne, ornée des cornes ou pointes de taille réduite.
-Il est démontré que les centrosaurinés mâles ont une période d'adolescence prolongée et que la sexualité n'apparait qu'à l'âge adulte[4].
-Les analyses morphométriques des crânes, des museaux et des collerettes permettent de différencier les centrosaurinés des autres groupes de cératopsiens[6].
+Il est démontré que les centrosaurinés mâles ont une période d'adolescence prolongée et que la sexualité n'apparait qu'à l'âge adulte.
+Les analyses morphométriques des crânes, des museaux et des collerettes permettent de différencier les centrosaurinés des autres groupes de cératopsiens.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Avaceratops
 Achelousaurus
@@ -624,14 +642,50 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, Michael J. Ryan et ses collègues ont proposé une subdivision des centrosaurinés en trois tribus[8] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 2016, Michael J. Ryan et ses collègues ont proposé une subdivision des centrosaurinés en trois tribus : 
 les Nasutoceratopsini, définis comme des centrosaurinés plus proche de Nasutoceratops titusi que de Centrosaurus apertus ;
 les Centrosaurini, définis comme des centrosaurinés plus proche de Centrosaurus apertus que de Pachyrhinosaurus canadensis ;
-les Pachyrhinosaurini, définis comme des centrosaurinés plus proche de Pachyrhinosaurus canadensis que de Centrosaurus apertus.
-Phylogénie
-On retrouve ces trois tribus dans le cladogramme suivant issu de l'analyse phylogénétique réalisée par Kentaro Chiba et ses collègues en 2017[9] :
+les Pachyrhinosaurini, définis comme des centrosaurinés plus proche de Pachyrhinosaurus canadensis que de Centrosaurus apertus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centrosaurinae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centrosaurinae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve ces trois tribus dans le cladogramme suivant issu de l'analyse phylogénétique réalisée par Kentaro Chiba et ses collègues en 2017 :
 </t>
         </is>
       </c>
